--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2420.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2420.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.035002715492723</v>
+        <v>1.327869176864624</v>
       </c>
       <c r="B1">
-        <v>2.097737059274621</v>
+        <v>1.346596598625183</v>
       </c>
       <c r="C1">
-        <v>9.022335562859519</v>
+        <v>3.835701465606689</v>
       </c>
       <c r="D1">
-        <v>2.039297026999721</v>
+        <v>3.482260465621948</v>
       </c>
       <c r="E1">
-        <v>0.9973074659932814</v>
+        <v>1.058396339416504</v>
       </c>
     </row>
   </sheetData>
